--- a/progress_and_summary.xlsx
+++ b/progress_and_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagnik/work/fungal_genome_assemblies_and_annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFEA4CF-CE49-5640-BF0B-79E43F6A9270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88E66AF-2ACA-9A42-BAB9-78F17A1D563D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{24C2495F-EDE7-3247-B59C-E45DF1D9AF94}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>Cf</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Total length of assembled genome</t>
+  </si>
+  <si>
+    <t>BUSCO</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
   <dimension ref="B2:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102529FF-DECB-304B-AC62-CDA07C48163F}">
-  <dimension ref="B2:C14"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,17 +1025,28 @@
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1040,28 +1054,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>5</v>
       </c>
     </row>

--- a/progress_and_summary.xlsx
+++ b/progress_and_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagnik/work/fungal_genome_assemblies_and_annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88E66AF-2ACA-9A42-BAB9-78F17A1D563D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57263724-20BD-B14E-B72F-A050CA669092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{24C2495F-EDE7-3247-B59C-E45DF1D9AF94}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="86">
   <si>
     <t>Cf</t>
   </si>
@@ -186,9 +186,6 @@
     <t xml:space="preserve">/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Cs_rna_seq_alignments/merged_1.log </t>
   </si>
   <si>
-    <t xml:space="preserve">/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Sg_rna_seq_alignments/merged_1.log </t>
-  </si>
-  <si>
     <t xml:space="preserve">/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Cs_rna_seq_alignments/merged_1.log </t>
   </si>
   <si>
@@ -207,12 +204,6 @@
     <t>Number of contigs</t>
   </si>
   <si>
-    <t>Percetange of DNA-Seq data aligned</t>
-  </si>
-  <si>
-    <t>Percetange of RNA-Seq data aligned</t>
-  </si>
-  <si>
     <t>FGMP coverage</t>
   </si>
   <si>
@@ -220,6 +211,90 @@
   </si>
   <si>
     <t>BUSCO</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Cf_busco</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Cs_busco</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/soapdenovo2/Sg_busco</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Cf_busco</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Cs_busco</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/megahit/Sg_busco</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Cf_busco</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Cs_busco</t>
+  </si>
+  <si>
+    <t>/project/maizegdb/sagnik/3_fungal_genomes/genome_assembly/masurca/Sg_busco</t>
+  </si>
+  <si>
+    <t>Feb 5th, 2023</t>
+  </si>
+  <si>
+    <t>Complete BUSCOs (C)</t>
+  </si>
+  <si>
+    <t>Complete and single-copy BUSCOs (S)</t>
+  </si>
+  <si>
+    <t>Complete and duplicated BUSCOs (D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragmented BUSCOs (F)	</t>
+  </si>
+  <si>
+    <t>Missing BUSCOs (M)</t>
+  </si>
+  <si>
+    <t>UCEs completion estimation</t>
+  </si>
+  <si>
+    <t>Highly conserved genes</t>
+  </si>
+  <si>
+    <t>Fragmented BUSCOs (F)</t>
+  </si>
+  <si>
+    <t>Soapdenovo</t>
+  </si>
+  <si>
+    <t>Percentange of DNA-Seq data aligned</t>
+  </si>
+  <si>
+    <t>Percentange of RNA-Seq data aligned</t>
+  </si>
+  <si>
+    <t>Percentage of gaps</t>
+  </si>
+  <si>
+    <t>1 MB</t>
+  </si>
+  <si>
+    <t>52 KB</t>
+  </si>
+  <si>
+    <t>239 KB</t>
+  </si>
+  <si>
+    <t>46 KB</t>
+  </si>
+  <si>
+    <t>48 KB</t>
+  </si>
+  <si>
+    <t>33 KB</t>
   </si>
 </sst>
 </file>
@@ -268,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +361,9 @@
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -297,6 +375,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64446D30-1A47-D147-BB82-772E42F54F51}">
-  <dimension ref="B2:P18"/>
+  <dimension ref="B2:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -625,23 +710,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="2:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
@@ -678,7 +763,7 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -716,7 +801,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -752,7 +837,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -796,7 +881,7 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="s">
@@ -831,7 +916,7 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -864,7 +949,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" t="s">
         <v>5</v>
       </c>
@@ -896,9 +981,21 @@
         <v>33</v>
       </c>
     </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
-        <v>35</v>
+      <c r="B16" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -907,32 +1004,32 @@
         <v>27</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="6"/>
+      <c r="B17" s="10"/>
       <c r="C17" t="s">
         <v>4</v>
       </c>
@@ -940,32 +1037,32 @@
         <v>24</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="6"/>
+      <c r="B18" s="10"/>
       <c r="C18" t="s">
         <v>5</v>
       </c>
@@ -973,33 +1070,135 @@
         <v>11</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="N18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P18" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="7"/>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B21:B23"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
@@ -1013,78 +1212,683 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{102529FF-DECB-304B-AC62-CDA07C48163F}">
-  <dimension ref="B1:F16"/>
+  <dimension ref="B1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="E2" s="13">
+        <v>81664189</v>
+      </c>
+      <c r="F2" s="13">
+        <v>35322774</v>
+      </c>
+      <c r="G2" s="13">
+        <v>57089736</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="10"/>
       <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>255</v>
+      </c>
+      <c r="F3" s="13">
+        <v>13000</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="10"/>
+      <c r="C4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="E4" s="13">
+        <v>283735</v>
+      </c>
+      <c r="F4" s="13">
+        <v>24906</v>
+      </c>
+      <c r="G4" s="13">
+        <v>150103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="10"/>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.82769999999999999</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.89129999999999998</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.89080000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="10"/>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.2555</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.41510000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="10"/>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="F7" s="14">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="G7" s="14">
+        <v>8.0999999999999996E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.871</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11">
+        <v>158</v>
+      </c>
+      <c r="F11">
+        <v>715</v>
+      </c>
+      <c r="G11">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12">
+        <v>156</v>
+      </c>
+      <c r="F12">
+        <v>715</v>
+      </c>
+      <c r="G12">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14">
+        <v>278</v>
+      </c>
+      <c r="F14">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <v>322</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="13">
+        <v>34482385</v>
+      </c>
+      <c r="F19" s="13">
+        <v>34011526</v>
+      </c>
+      <c r="G19" s="13">
+        <v>35827657</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="10"/>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>3243</v>
+      </c>
+      <c r="F21">
+        <v>10672</v>
+      </c>
+      <c r="G21" s="13">
+        <v>17939</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.97160000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="14">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.84140000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="10"/>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="14">
+        <v>0.871</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28">
+        <v>755</v>
+      </c>
+      <c r="F28">
+        <v>755</v>
+      </c>
+      <c r="G28">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29">
+        <v>754</v>
+      </c>
+      <c r="F29">
+        <v>754</v>
+      </c>
+      <c r="G29">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="13">
+        <v>35019206</v>
+      </c>
+      <c r="F36" s="13">
+        <v>31772312</v>
+      </c>
+      <c r="G36" s="13">
+        <v>33453511</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38">
+        <v>2805</v>
+      </c>
+      <c r="F38">
+        <v>3096</v>
+      </c>
+      <c r="G38">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="14">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0.96440000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="F40" s="14">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0.82869999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="10"/>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="10"/>
+      <c r="C42" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0.871</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="10"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="10"/>
+      <c r="C45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45">
+        <v>748</v>
+      </c>
+      <c r="F45">
+        <v>752</v>
+      </c>
+      <c r="G45">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="10"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46">
+        <v>743</v>
+      </c>
+      <c r="F46">
+        <v>745</v>
+      </c>
+      <c r="G46">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="10"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="10"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="G48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="10"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B36:B49"/>
+    <mergeCell ref="B19:B32"/>
+    <mergeCell ref="B2:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C45:C49"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>